--- a/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.779126892769114</v>
+        <v>1.372211397697072</v>
       </c>
       <c r="C2">
-        <v>0.6520653456617538</v>
+        <v>0.209179934029379</v>
       </c>
       <c r="D2">
-        <v>0.002773721582860489</v>
+        <v>0.01829025106898285</v>
       </c>
       <c r="E2">
-        <v>0.03340955764685027</v>
+        <v>0.05133392934182623</v>
       </c>
       <c r="F2">
-        <v>2.675912884368842</v>
+        <v>2.382887837243203</v>
       </c>
       <c r="G2">
-        <v>0.0008199005528219597</v>
+        <v>0.0008479610028653789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08583562684354007</v>
+        <v>0.108474797638813</v>
       </c>
       <c r="K2">
-        <v>0.7717861262039349</v>
+        <v>1.488173135395158</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6825364407470005</v>
+        <v>0.4007318258021186</v>
       </c>
       <c r="N2">
-        <v>1.573314464316681</v>
+        <v>2.260317690078054</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.419748229612651</v>
+        <v>1.205303136895992</v>
       </c>
       <c r="C3">
-        <v>0.5647242343231937</v>
+        <v>0.1825540509985188</v>
       </c>
       <c r="D3">
-        <v>0.002487206778783779</v>
+        <v>0.0158561387899212</v>
       </c>
       <c r="E3">
-        <v>0.03162453736113413</v>
+        <v>0.04711233421226524</v>
       </c>
       <c r="F3">
-        <v>2.478698653700349</v>
+        <v>2.260792046704267</v>
       </c>
       <c r="G3">
-        <v>0.000828743480714946</v>
+        <v>0.0008548459712570311</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08157959208236321</v>
+        <v>0.1022009565725526</v>
       </c>
       <c r="K3">
-        <v>0.6710077305787721</v>
+        <v>1.305271656029902</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5985681810192389</v>
+        <v>0.3548004565125567</v>
       </c>
       <c r="N3">
-        <v>1.594666245442966</v>
+        <v>2.265434243399255</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.203362239725664</v>
+        <v>1.104567798019986</v>
       </c>
       <c r="C4">
-        <v>0.5121337503554457</v>
+        <v>0.1664931995429981</v>
       </c>
       <c r="D4">
-        <v>0.002317412255389506</v>
+        <v>0.01436882722661181</v>
       </c>
       <c r="E4">
-        <v>0.03057165539187245</v>
+        <v>0.04458665863270816</v>
       </c>
       <c r="F4">
-        <v>2.362816899367076</v>
+        <v>2.189172918653568</v>
       </c>
       <c r="G4">
-        <v>0.0008343165999804558</v>
+        <v>0.0008592001654190306</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07910797989234908</v>
+        <v>0.09849891343862538</v>
       </c>
       <c r="K4">
-        <v>0.6103266402271998</v>
+        <v>1.194895309337141</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5480860441666735</v>
+        <v>0.3271273469180187</v>
       </c>
       <c r="N4">
-        <v>1.609894026992833</v>
+        <v>2.270641011643548</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.116125565822244</v>
+        <v>1.063911061918049</v>
       </c>
       <c r="C5">
-        <v>0.4909293311482372</v>
+        <v>0.1600124287435705</v>
       </c>
       <c r="D5">
-        <v>0.002249501615221305</v>
+        <v>0.01376430718409338</v>
       </c>
       <c r="E5">
-        <v>0.03015275723048028</v>
+        <v>0.04357296007130351</v>
       </c>
       <c r="F5">
-        <v>2.316786774129014</v>
+        <v>2.160773106605504</v>
       </c>
       <c r="G5">
-        <v>0.0008366255178952324</v>
+        <v>0.0008610073911089495</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07813375340050399</v>
+        <v>0.09702555185788952</v>
       </c>
       <c r="K5">
-        <v>0.5858619687597368</v>
+        <v>1.150349158228579</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5277532269154435</v>
+        <v>0.3159705852869266</v>
       </c>
       <c r="N5">
-        <v>1.616601540791549</v>
+        <v>2.273258591828409</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.101693240711597</v>
+        <v>1.057182549018876</v>
       </c>
       <c r="C6">
-        <v>0.4874210971580055</v>
+        <v>0.1589399493294792</v>
       </c>
       <c r="D6">
-        <v>0.00223829564360134</v>
+        <v>0.01366401508370529</v>
       </c>
       <c r="E6">
-        <v>0.03008379417525653</v>
+        <v>0.04340554193842294</v>
       </c>
       <c r="F6">
-        <v>2.309212300879594</v>
+        <v>2.156103210815445</v>
       </c>
       <c r="G6">
-        <v>0.0008370112447761051</v>
+        <v>0.0008613094913520792</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07797390260178361</v>
+        <v>0.0967829605348669</v>
       </c>
       <c r="K6">
-        <v>0.5818144936898477</v>
+        <v>1.142977032884659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.524390554863281</v>
+        <v>0.3141249203353169</v>
       </c>
       <c r="N6">
-        <v>1.617744801428643</v>
+        <v>2.273722526409173</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.202182086639937</v>
+        <v>1.104017950819525</v>
       </c>
       <c r="C7">
-        <v>0.5118469055928472</v>
+        <v>0.1664055481836328</v>
       </c>
       <c r="D7">
-        <v>0.00231649151423774</v>
+        <v>0.01436066841086969</v>
       </c>
       <c r="E7">
-        <v>0.03056596571244263</v>
+        <v>0.04457292611981778</v>
       </c>
       <c r="F7">
-        <v>2.36219143970969</v>
+        <v>2.188786799816427</v>
       </c>
       <c r="G7">
-        <v>0.0008343475835798019</v>
+        <v>0.0008592244040062587</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07909471093816123</v>
+        <v>0.0984789036171918</v>
       </c>
       <c r="K7">
-        <v>0.6099956822555725</v>
+        <v>1.194292855814581</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5478109000329781</v>
+        <v>0.3269764122405903</v>
       </c>
       <c r="N7">
-        <v>1.609982492334822</v>
+        <v>2.270674335730746</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.654242718215073</v>
+        <v>1.314270375179575</v>
       </c>
       <c r="C8">
-        <v>0.6217132648044412</v>
+        <v>0.1999345506841195</v>
       </c>
       <c r="D8">
-        <v>0.00267349235187897</v>
+        <v>0.01744930836859382</v>
       </c>
       <c r="E8">
-        <v>0.03278470045934867</v>
+        <v>0.04986381646894955</v>
       </c>
       <c r="F8">
-        <v>2.606758653497849</v>
+        <v>2.340059100260063</v>
       </c>
       <c r="G8">
-        <v>0.0008229208950016027</v>
+        <v>0.000850309228374532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08433709798419642</v>
+        <v>0.1062788603818845</v>
       </c>
       <c r="K8">
-        <v>0.7367654999204944</v>
+        <v>1.42467700759866</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6533414901171852</v>
+        <v>0.3847769448463865</v>
       </c>
       <c r="N8">
-        <v>1.580217860727529</v>
+        <v>2.261638555392068</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.581294140975331</v>
+        <v>1.742680816796451</v>
       </c>
       <c r="C9">
-        <v>0.847115409485383</v>
+        <v>0.2683690722635674</v>
       </c>
       <c r="D9">
-        <v>0.00343603031903239</v>
+        <v>0.02357624452177021</v>
       </c>
       <c r="E9">
-        <v>0.03751218919019017</v>
+        <v>0.06082324225844005</v>
       </c>
       <c r="F9">
-        <v>3.133555127895221</v>
+        <v>2.666039926480764</v>
       </c>
       <c r="G9">
-        <v>0.0008015654922824829</v>
+        <v>0.0008337852560104607</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09587289764812112</v>
+        <v>0.1228884245975692</v>
       </c>
       <c r="K9">
-        <v>0.9967556870110741</v>
+        <v>1.89426312037557</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8703807798244867</v>
+        <v>0.5029484433861811</v>
       </c>
       <c r="N9">
-        <v>1.540176485402696</v>
+        <v>2.261459802113862</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.297575545613086</v>
+        <v>2.070688501091922</v>
       </c>
       <c r="C10">
-        <v>1.021505940975999</v>
+        <v>0.3209033430865986</v>
       </c>
       <c r="D10">
-        <v>0.004057648203504627</v>
+        <v>0.02814025158637179</v>
       </c>
       <c r="E10">
-        <v>0.04126884047088808</v>
+        <v>0.06931841322235499</v>
       </c>
       <c r="F10">
-        <v>3.558585109501621</v>
+        <v>2.927656428963729</v>
       </c>
       <c r="G10">
-        <v>0.0007863823222311381</v>
+        <v>0.0008221576898175749</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1053201911176203</v>
+        <v>0.136079926624177</v>
       </c>
       <c r="K10">
-        <v>1.197698075459044</v>
+        <v>2.25398631197163</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.038454841626184</v>
+        <v>0.593671611213189</v>
       </c>
       <c r="N10">
-        <v>1.524321610648229</v>
+        <v>2.273784282667577</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.633777475755323</v>
+        <v>2.223640602790283</v>
       </c>
       <c r="C11">
-        <v>1.103457756782461</v>
+        <v>0.3454474110851038</v>
       </c>
       <c r="D11">
-        <v>0.004360360704245281</v>
+        <v>0.03023508383468965</v>
       </c>
       <c r="E11">
-        <v>0.04305322169020087</v>
+        <v>0.07330094501046247</v>
       </c>
       <c r="F11">
-        <v>3.762583889740057</v>
+        <v>3.052530315141865</v>
       </c>
       <c r="G11">
-        <v>0.0007795504863655397</v>
+        <v>0.0008169616726662669</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1098824799337308</v>
+        <v>0.1423423310725127</v>
       </c>
       <c r="K11">
-        <v>1.292041519970425</v>
+        <v>2.421792665531399</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.117424789602545</v>
+        <v>0.6360304415252998</v>
       </c>
       <c r="N11">
-        <v>1.520677593684695</v>
+        <v>2.282536795937403</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.762840163934015</v>
+        <v>2.28217660224874</v>
       </c>
       <c r="C12">
-        <v>1.134936512069771</v>
+        <v>0.3548489918096607</v>
       </c>
       <c r="D12">
-        <v>0.004478541560949623</v>
+        <v>0.03103147743512125</v>
       </c>
       <c r="E12">
-        <v>0.04374109993937836</v>
+        <v>0.07482799168474585</v>
       </c>
       <c r="F12">
-        <v>3.841596314408463</v>
+        <v>3.100758194673404</v>
       </c>
       <c r="G12">
-        <v>0.000776970921323672</v>
+        <v>0.0008150058929937083</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1116533203534829</v>
+        <v>0.1447556766003117</v>
       </c>
       <c r="K12">
-        <v>1.32826367990387</v>
+        <v>2.486025125994303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.147751534942785</v>
+        <v>0.6522493026374079</v>
       </c>
       <c r="N12">
-        <v>1.519871850976728</v>
+        <v>2.28634501107851</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.734961826221024</v>
+        <v>2.269541074706297</v>
       </c>
       <c r="C13">
-        <v>1.128135993801038</v>
+        <v>0.3528191759853883</v>
       </c>
       <c r="D13">
-        <v>0.004452918997825961</v>
+        <v>0.03085981319209452</v>
       </c>
       <c r="E13">
-        <v>0.04359238879760063</v>
+        <v>0.07449823853714932</v>
       </c>
       <c r="F13">
-        <v>3.82449716225139</v>
+        <v>3.090327945991561</v>
       </c>
       <c r="G13">
-        <v>0.0007775262003580177</v>
+        <v>0.0008154266057393114</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1112699273910636</v>
+        <v>0.1442339822219978</v>
       </c>
       <c r="K13">
-        <v>1.320439216669698</v>
+        <v>2.472159411014189</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.141200267990229</v>
+        <v>0.6487479674961989</v>
       </c>
       <c r="N13">
-        <v>1.520018780590377</v>
+        <v>2.285502172613462</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.644358842414192</v>
+        <v>2.228443562407051</v>
       </c>
       <c r="C14">
-        <v>1.106038179386417</v>
+        <v>0.3462186467848198</v>
       </c>
       <c r="D14">
-        <v>0.004370007978113932</v>
+        <v>0.03030053824492285</v>
       </c>
       <c r="E14">
-        <v>0.04310956171946678</v>
+        <v>0.07342618428287295</v>
       </c>
       <c r="F14">
-        <v>3.769047528271159</v>
+        <v>3.056478599112182</v>
       </c>
       <c r="G14">
-        <v>0.0007793381339712693</v>
+        <v>0.0008168005419354798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1100272702803693</v>
+        <v>0.1425400123018505</v>
       </c>
       <c r="K14">
-        <v>1.295011127691367</v>
+        <v>2.427062781788948</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.119910939596465</v>
+        <v>0.6373610656420041</v>
       </c>
       <c r="N14">
-        <v>1.520599417055436</v>
+        <v>2.282839949682824</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.58909817796183</v>
+        <v>2.203352890050724</v>
       </c>
       <c r="C15">
-        <v>1.092562831688213</v>
+        <v>0.3421900563255349</v>
       </c>
       <c r="D15">
-        <v>0.004319707443805498</v>
+        <v>0.02995838731977329</v>
       </c>
       <c r="E15">
-        <v>0.04281544347924715</v>
+        <v>0.07277204973467022</v>
       </c>
       <c r="F15">
-        <v>3.735319958916705</v>
+        <v>3.035870499463783</v>
       </c>
       <c r="G15">
-        <v>0.0007804488676647482</v>
+        <v>0.0008176436093177742</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1092718974325706</v>
+        <v>0.1415079999005968</v>
       </c>
       <c r="K15">
-        <v>1.279502714562568</v>
+        <v>2.399532163479961</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.106927601117043</v>
+        <v>0.6304101958155712</v>
       </c>
       <c r="N15">
-        <v>1.521031805719119</v>
+        <v>2.28127487835738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.275833920419643</v>
+        <v>2.060774509112036</v>
       </c>
       <c r="C16">
-        <v>1.016208574111317</v>
+        <v>0.3193135234667466</v>
       </c>
       <c r="D16">
-        <v>0.004038321915161625</v>
+        <v>0.02800376152134731</v>
       </c>
       <c r="E16">
-        <v>0.04115385445907904</v>
+        <v>0.06906068496132889</v>
       </c>
       <c r="F16">
-        <v>3.5454866596736</v>
+        <v>2.919621733236283</v>
       </c>
       <c r="G16">
-        <v>0.0007868300377399631</v>
+        <v>0.0008224990088983031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1050277846294492</v>
+        <v>0.1356762840516552</v>
       </c>
       <c r="K16">
-        <v>1.191597680707716</v>
+        <v>2.243110985228071</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.033349573749042</v>
+        <v>0.5909270911759918</v>
       </c>
       <c r="N16">
-        <v>1.524636587370935</v>
+        <v>2.273279033407306</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.086484758184781</v>
+        <v>1.974318540732213</v>
       </c>
       <c r="C17">
-        <v>0.9700847579653953</v>
+        <v>0.3054547133020549</v>
       </c>
       <c r="D17">
-        <v>0.003871254084885756</v>
+        <v>0.02680973914915086</v>
       </c>
       <c r="E17">
-        <v>0.04015473796498448</v>
+        <v>0.06681545914985421</v>
       </c>
       <c r="F17">
-        <v>3.431912629656608</v>
+        <v>2.849874980748552</v>
       </c>
       <c r="G17">
-        <v>0.0007907616959534515</v>
+        <v>0.0008255004801160321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1024953943642544</v>
+        <v>0.1321686223499938</v>
       </c>
       <c r="K17">
-        <v>1.138472063622658</v>
+        <v>2.148279045932014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9888963389495444</v>
+        <v>0.566999191358363</v>
       </c>
       <c r="N17">
-        <v>1.52780279064055</v>
+        <v>2.269207732860394</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.978533931239951</v>
+        <v>1.924938198240113</v>
       </c>
       <c r="C18">
-        <v>0.9437976059103619</v>
+        <v>0.2975433450149865</v>
       </c>
       <c r="D18">
-        <v>0.003776989687168886</v>
+        <v>0.02612469448495602</v>
       </c>
       <c r="E18">
-        <v>0.03958708693830104</v>
+        <v>0.06553504545590982</v>
       </c>
       <c r="F18">
-        <v>3.367574780945489</v>
+        <v>2.810303946593493</v>
       </c>
       <c r="G18">
-        <v>0.0007930303678494434</v>
+        <v>0.0008272357443174752</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1010633968237542</v>
+        <v>0.1301754416420948</v>
       </c>
       <c r="K18">
-        <v>1.108186737326534</v>
+        <v>2.094120560763656</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9635603531804406</v>
+        <v>0.5533374991165516</v>
       </c>
       <c r="N18">
-        <v>1.529955669415244</v>
+        <v>2.267159421094831</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.942140771392246</v>
+        <v>1.908276169182329</v>
       </c>
       <c r="C19">
-        <v>0.9349368641276783</v>
+        <v>0.2948745580643219</v>
       </c>
       <c r="D19">
-        <v>0.003745368658322867</v>
+        <v>0.02589303365420648</v>
       </c>
       <c r="E19">
-        <v>0.03939605727229889</v>
+        <v>0.06510334832152154</v>
       </c>
       <c r="F19">
-        <v>3.345954060559819</v>
+        <v>2.796996742120641</v>
       </c>
       <c r="G19">
-        <v>0.0007937998459648381</v>
+        <v>0.0008278248492156687</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1005826206413118</v>
+        <v>0.1295046402106763</v>
       </c>
       <c r="K19">
-        <v>1.097977104826739</v>
+        <v>2.075847227886527</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9550201930001307</v>
+        <v>0.5487285988188972</v>
       </c>
       <c r="N19">
-        <v>1.530739853408861</v>
+        <v>2.266515096893599</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.106540396838511</v>
+        <v>1.983485485580786</v>
       </c>
       <c r="C20">
-        <v>0.9749691998098058</v>
+        <v>0.3069237134949674</v>
       </c>
       <c r="D20">
-        <v>0.003888844941634773</v>
+        <v>0.02693666321592758</v>
       </c>
       <c r="E20">
-        <v>0.04026036063797989</v>
+        <v>0.06705331711482643</v>
       </c>
       <c r="F20">
-        <v>3.443899061850175</v>
+        <v>2.857242513645915</v>
       </c>
       <c r="G20">
-        <v>0.0007903424326954527</v>
+        <v>0.0008251800585371274</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1027623940313376</v>
+        <v>0.1325394707343008</v>
       </c>
       <c r="K20">
-        <v>1.144098808657219</v>
+        <v>2.158333470003356</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9936039977193829</v>
+        <v>0.5695357516866721</v>
       </c>
       <c r="N20">
-        <v>1.527430991486654</v>
+        <v>2.269610478616983</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.670921378322419</v>
+        <v>2.240497502884352</v>
       </c>
       <c r="C21">
-        <v>1.112516160796531</v>
+        <v>0.3481543482652967</v>
       </c>
       <c r="D21">
-        <v>0.004394258500463266</v>
+        <v>0.03046472222903418</v>
       </c>
       <c r="E21">
-        <v>0.04325103800371899</v>
+        <v>0.07374054162058385</v>
       </c>
       <c r="F21">
-        <v>3.785284594925798</v>
+        <v>3.06639460811806</v>
       </c>
       <c r="G21">
-        <v>0.0007788057499781415</v>
+        <v>0.000816396675776511</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1103910518743021</v>
+        <v>0.1430363984160863</v>
       </c>
       <c r="K21">
-        <v>1.302465857884954</v>
+        <v>2.440289333526607</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.126152133221403</v>
+        <v>0.6407006439070599</v>
       </c>
       <c r="N21">
-        <v>1.520412757773869</v>
+        <v>2.283608154180726</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.05012715701389</v>
+        <v>2.412104932092632</v>
       </c>
       <c r="C22">
-        <v>1.20504627388641</v>
+        <v>0.3757340901016448</v>
       </c>
       <c r="D22">
-        <v>0.004745686394546311</v>
+        <v>0.03278897563796335</v>
       </c>
       <c r="E22">
-        <v>0.04527730958851706</v>
+        <v>0.07822253960040015</v>
       </c>
       <c r="F22">
-        <v>4.018804545378941</v>
+        <v>3.208624644847106</v>
       </c>
       <c r="G22">
-        <v>0.0007713077319504781</v>
+        <v>0.0008107243783201501</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.115631542966554</v>
+        <v>0.1501433552244507</v>
       </c>
       <c r="K22">
-        <v>1.408903374101314</v>
+        <v>2.628621202170677</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.215277726288349</v>
+        <v>0.6882633144858019</v>
       </c>
       <c r="N22">
-        <v>1.519207503223541</v>
+        <v>2.295657431862253</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.846695121531127</v>
+        <v>2.32015402264733</v>
       </c>
       <c r="C23">
-        <v>1.155394801641989</v>
+        <v>0.3609511527942857</v>
       </c>
       <c r="D23">
-        <v>0.004555929438048167</v>
+        <v>0.03154662877015113</v>
       </c>
       <c r="E23">
-        <v>0.04418880716821683</v>
+        <v>0.07581950387289993</v>
       </c>
       <c r="F23">
-        <v>3.893133511323384</v>
+        <v>3.13217209722049</v>
       </c>
       <c r="G23">
-        <v>0.0007753069412987923</v>
+        <v>0.0008137461235078184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1128093988947541</v>
+        <v>0.1463261324554921</v>
       </c>
       <c r="K23">
-        <v>1.351799655424927</v>
+        <v>2.527701858981686</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.167458641261788</v>
+        <v>0.6627740580941222</v>
       </c>
       <c r="N23">
-        <v>1.519518848284932</v>
+        <v>2.288946172381486</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.097470431939371</v>
+        <v>1.979340105388872</v>
       </c>
       <c r="C24">
-        <v>0.9727602321648305</v>
+        <v>0.3062594043803983</v>
       </c>
       <c r="D24">
-        <v>0.00388088660482655</v>
+        <v>0.02687927647192367</v>
       </c>
       <c r="E24">
-        <v>0.04021258768662506</v>
+        <v>0.06694574929277763</v>
       </c>
       <c r="F24">
-        <v>3.438477030892216</v>
+        <v>2.853910016851273</v>
       </c>
       <c r="G24">
-        <v>0.0007905319553889133</v>
+        <v>0.0008253248909138752</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1026416093951994</v>
+        <v>0.1323717375490219</v>
       </c>
       <c r="K24">
-        <v>1.141554161291523</v>
+        <v>2.15378674497822</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9914749820577953</v>
+        <v>0.5683886791885939</v>
       </c>
       <c r="N24">
-        <v>1.527598050457883</v>
+        <v>2.269427489785116</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.325154498080678</v>
+        <v>1.624724368199992</v>
       </c>
       <c r="C25">
-        <v>0.7848114792786021</v>
+        <v>0.2495080256077529</v>
       </c>
       <c r="D25">
-        <v>0.00322089838060613</v>
+        <v>0.0219093092939957</v>
       </c>
       <c r="E25">
-        <v>0.03618777521423056</v>
+        <v>0.05778736105017757</v>
       </c>
       <c r="F25">
-        <v>2.985103236968314</v>
+        <v>2.574299306888719</v>
       </c>
       <c r="G25">
-        <v>0.0008072430663651206</v>
+        <v>0.0008381598546904486</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09259786200108522</v>
+        <v>0.1182361123458904</v>
       </c>
       <c r="K25">
-        <v>0.924914936620894</v>
+        <v>1.764944151823698</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8103484172898945</v>
+        <v>0.4703694384306942</v>
       </c>
       <c r="N25">
-        <v>1.548817384574022</v>
+        <v>2.25945856480611</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.372211397697072</v>
+        <v>0.8684344697522874</v>
       </c>
       <c r="C2">
-        <v>0.209179934029379</v>
+        <v>0.1868353142333916</v>
       </c>
       <c r="D2">
-        <v>0.01829025106898285</v>
+        <v>0.10467508831195</v>
       </c>
       <c r="E2">
-        <v>0.05133392934182623</v>
+        <v>0.08727865772070942</v>
       </c>
       <c r="F2">
-        <v>2.382887837243203</v>
+        <v>1.064997573577813</v>
       </c>
       <c r="G2">
-        <v>0.0008479610028653789</v>
+        <v>0.7632125944217023</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004320676982796812</v>
       </c>
       <c r="J2">
-        <v>0.108474797638813</v>
+        <v>0.563281204157704</v>
       </c>
       <c r="K2">
-        <v>1.488173135395158</v>
+        <v>0.5120283062248348</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1003376509726408</v>
       </c>
       <c r="M2">
-        <v>0.4007318258021186</v>
+        <v>1.016491736312872</v>
       </c>
       <c r="N2">
-        <v>2.260317690078054</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3435915440987998</v>
+      </c>
+      <c r="P2">
+        <v>1.093361904414074</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.205303136895992</v>
+        <v>0.7552461920764415</v>
       </c>
       <c r="C3">
-        <v>0.1825540509985188</v>
+        <v>0.1615872844464974</v>
       </c>
       <c r="D3">
-        <v>0.0158561387899212</v>
+        <v>0.09330082287048214</v>
       </c>
       <c r="E3">
-        <v>0.04711233421226524</v>
+        <v>0.08043827440167917</v>
       </c>
       <c r="F3">
-        <v>2.260792046704267</v>
+        <v>1.023855533716834</v>
       </c>
       <c r="G3">
-        <v>0.0008548459712570311</v>
+        <v>0.7341819475563653</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006435384889458273</v>
       </c>
       <c r="J3">
-        <v>0.1022009565725526</v>
+        <v>0.5555024150042556</v>
       </c>
       <c r="K3">
-        <v>1.305271656029902</v>
+        <v>0.5056525121594362</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09505005984773618</v>
       </c>
       <c r="M3">
-        <v>0.3548004565125567</v>
+        <v>0.8833594839526313</v>
       </c>
       <c r="N3">
-        <v>2.265434243399255</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3017277973970138</v>
+      </c>
+      <c r="P3">
+        <v>1.132855570509001</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.104567798019986</v>
+        <v>0.6855751385629389</v>
       </c>
       <c r="C4">
-        <v>0.1664931995429981</v>
+        <v>0.1464201480115008</v>
       </c>
       <c r="D4">
-        <v>0.01436882722661181</v>
+        <v>0.0864347177798237</v>
       </c>
       <c r="E4">
-        <v>0.04458665863270816</v>
+        <v>0.07634526620039495</v>
       </c>
       <c r="F4">
-        <v>2.189172918653568</v>
+        <v>0.9996420353310498</v>
       </c>
       <c r="G4">
-        <v>0.0008592001654190306</v>
+        <v>0.7171125957217299</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008050798990530961</v>
       </c>
       <c r="J4">
-        <v>0.09849891343862538</v>
+        <v>0.5512058111566489</v>
       </c>
       <c r="K4">
-        <v>1.194895309337141</v>
+        <v>0.5020810709074688</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0919293766415521</v>
       </c>
       <c r="M4">
-        <v>0.3271273469180187</v>
+        <v>0.8018500651849081</v>
       </c>
       <c r="N4">
-        <v>2.270641011643548</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2762219762541704</v>
+      </c>
+      <c r="P4">
+        <v>1.157900853014482</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063911061918049</v>
+        <v>0.6563984608982025</v>
       </c>
       <c r="C5">
-        <v>0.1600124287435705</v>
+        <v>0.1406770041153322</v>
       </c>
       <c r="D5">
-        <v>0.01376430718409338</v>
+        <v>0.08376151463306769</v>
       </c>
       <c r="E5">
-        <v>0.04357296007130351</v>
+        <v>0.07472649106169982</v>
       </c>
       <c r="F5">
-        <v>2.160773106605504</v>
+        <v>0.9893050946812068</v>
       </c>
       <c r="G5">
-        <v>0.0008610073911089495</v>
+        <v>0.7096305408952333</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008869337707026581</v>
       </c>
       <c r="J5">
-        <v>0.09702555185788952</v>
+        <v>0.549210735686529</v>
       </c>
       <c r="K5">
-        <v>1.150349158228579</v>
+        <v>0.5001956173172708</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09067293956452005</v>
       </c>
       <c r="M5">
-        <v>0.3159705852869266</v>
+        <v>0.7685247827274964</v>
       </c>
       <c r="N5">
-        <v>2.273258591828409</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.265874715151952</v>
+      </c>
+      <c r="P5">
+        <v>1.16792638504316</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.057182549018876</v>
+        <v>0.6506498525653512</v>
       </c>
       <c r="C6">
-        <v>0.1589399493294792</v>
+        <v>0.1401695231442091</v>
       </c>
       <c r="D6">
-        <v>0.01366401508370529</v>
+        <v>0.08343790567667497</v>
       </c>
       <c r="E6">
-        <v>0.04340554193842294</v>
+        <v>0.07448812568423335</v>
       </c>
       <c r="F6">
-        <v>2.156103210815445</v>
+        <v>0.9867222305654337</v>
       </c>
       <c r="G6">
-        <v>0.0008613094913520792</v>
+        <v>0.7075356518454612</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00911962077431383</v>
       </c>
       <c r="J6">
-        <v>0.0967829605348669</v>
+        <v>0.5484458176269271</v>
       </c>
       <c r="K6">
-        <v>1.142977032884659</v>
+        <v>0.4992608668754919</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09044790643473277</v>
       </c>
       <c r="M6">
-        <v>0.3141249203353169</v>
+        <v>0.7628023751008186</v>
       </c>
       <c r="N6">
-        <v>2.273722526409173</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2641609711214556</v>
+      </c>
+      <c r="P6">
+        <v>1.169144686882611</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.104017950819525</v>
+        <v>0.6827121623976495</v>
       </c>
       <c r="C7">
-        <v>0.1664055481836328</v>
+        <v>0.1475501099427134</v>
       </c>
       <c r="D7">
-        <v>0.01436066841086969</v>
+        <v>0.08672279716007836</v>
       </c>
       <c r="E7">
-        <v>0.04457292611981778</v>
+        <v>0.07640234422335013</v>
       </c>
       <c r="F7">
-        <v>2.188786799816427</v>
+        <v>0.9970947794583225</v>
       </c>
       <c r="G7">
-        <v>0.0008592244040062587</v>
+        <v>0.7146532699236161</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00834393923705079</v>
       </c>
       <c r="J7">
-        <v>0.0984789036171918</v>
+        <v>0.5499762985485006</v>
       </c>
       <c r="K7">
-        <v>1.194292855814581</v>
+        <v>0.5003444703293489</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09186267356241729</v>
       </c>
       <c r="M7">
-        <v>0.3269764122405903</v>
+        <v>0.8008750911627089</v>
       </c>
       <c r="N7">
-        <v>2.270674335730746</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2760866694856432</v>
+      </c>
+      <c r="P7">
+        <v>1.156798513285864</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314270375179575</v>
+        <v>0.8261331169100004</v>
       </c>
       <c r="C8">
-        <v>0.1999345506841195</v>
+        <v>0.1796642196422198</v>
       </c>
       <c r="D8">
-        <v>0.01744930836859382</v>
+        <v>0.1011584689920113</v>
       </c>
       <c r="E8">
-        <v>0.04986381646894955</v>
+        <v>0.08500167368191214</v>
       </c>
       <c r="F8">
-        <v>2.340059100260063</v>
+        <v>1.047402710265843</v>
       </c>
       <c r="G8">
-        <v>0.000850309228374532</v>
+        <v>0.7499206279360209</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00531623888145738</v>
       </c>
       <c r="J8">
-        <v>0.1062788603818845</v>
+        <v>0.5589114838079183</v>
       </c>
       <c r="K8">
-        <v>1.42467700759866</v>
+        <v>0.5074983286382491</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09842171750827333</v>
       </c>
       <c r="M8">
-        <v>0.3847769448463865</v>
+        <v>0.9698228374384996</v>
       </c>
       <c r="N8">
-        <v>2.261638555392068</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3291158653887791</v>
+      </c>
+      <c r="P8">
+        <v>1.105242232812255</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.742680816796451</v>
+        <v>1.110775731313083</v>
       </c>
       <c r="C9">
-        <v>0.2683690722635674</v>
+        <v>0.2434474590207429</v>
       </c>
       <c r="D9">
-        <v>0.02357624452177021</v>
+        <v>0.1298964774082236</v>
       </c>
       <c r="E9">
-        <v>0.06082324225844005</v>
+        <v>0.1026383505710946</v>
       </c>
       <c r="F9">
-        <v>2.666039926480764</v>
+        <v>1.159289573899741</v>
       </c>
       <c r="G9">
-        <v>0.0008337852560104607</v>
+        <v>0.8297874638786595</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001633988575103551</v>
       </c>
       <c r="J9">
-        <v>0.1228884245975692</v>
+        <v>0.582596485221913</v>
       </c>
       <c r="K9">
-        <v>1.89426312037557</v>
+        <v>0.5274760300294972</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.112445855976425</v>
       </c>
       <c r="M9">
-        <v>0.5029484433861811</v>
+        <v>1.304553011568004</v>
       </c>
       <c r="N9">
-        <v>2.261459802113862</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4349172466541305</v>
+      </c>
+      <c r="P9">
+        <v>1.012765541766608</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.070688501091922</v>
+        <v>1.318400496036816</v>
       </c>
       <c r="C10">
-        <v>0.3209033430865986</v>
+        <v>0.2932253188566847</v>
       </c>
       <c r="D10">
-        <v>0.02814025158637179</v>
+        <v>0.1519072472429741</v>
       </c>
       <c r="E10">
-        <v>0.06931841322235499</v>
+        <v>0.1162906612781711</v>
       </c>
       <c r="F10">
-        <v>2.927656428963729</v>
+        <v>1.246657857392506</v>
       </c>
       <c r="G10">
-        <v>0.0008221576898175749</v>
+        <v>0.8919919235550111</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009247430325212136</v>
       </c>
       <c r="J10">
-        <v>0.136079926624177</v>
+        <v>0.6021831043901074</v>
       </c>
       <c r="K10">
-        <v>2.25398631197163</v>
+        <v>0.5433399717630678</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1234884756336925</v>
       </c>
       <c r="M10">
-        <v>0.593671611213189</v>
+        <v>1.552610469497182</v>
       </c>
       <c r="N10">
-        <v>2.273784282667577</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5141115609987139</v>
+      </c>
+      <c r="P10">
+        <v>0.9485941348534688</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.223640602790283</v>
+        <v>1.408685410312671</v>
       </c>
       <c r="C11">
-        <v>0.3454474110851038</v>
+        <v>0.3185212168395424</v>
       </c>
       <c r="D11">
-        <v>0.03023508383468965</v>
+        <v>0.16264725187294</v>
       </c>
       <c r="E11">
-        <v>0.07330094501046247</v>
+        <v>0.122796428069563</v>
       </c>
       <c r="F11">
-        <v>3.052530315141865</v>
+        <v>1.284068948076438</v>
       </c>
       <c r="G11">
-        <v>0.0008169616726662669</v>
+        <v>0.9176365426801993</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001456370888154979</v>
       </c>
       <c r="J11">
-        <v>0.1423423310725127</v>
+        <v>0.6098336752057349</v>
       </c>
       <c r="K11">
-        <v>2.421792665531399</v>
+        <v>0.5482962974211958</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.12862213837181</v>
       </c>
       <c r="M11">
-        <v>0.6360304415252998</v>
+        <v>1.665265256210887</v>
       </c>
       <c r="N11">
-        <v>2.282536795937403</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5505334535375184</v>
+      </c>
+      <c r="P11">
+        <v>0.9187265666399504</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.28217660224874</v>
+        <v>1.445123994890025</v>
       </c>
       <c r="C12">
-        <v>0.3548489918096607</v>
+        <v>0.3271203097920363</v>
       </c>
       <c r="D12">
-        <v>0.03103147743512125</v>
+        <v>0.1664570670574506</v>
       </c>
       <c r="E12">
-        <v>0.07482799168474585</v>
+        <v>0.1252168967932761</v>
       </c>
       <c r="F12">
-        <v>3.100758194673404</v>
+        <v>1.300575841493682</v>
       </c>
       <c r="G12">
-        <v>0.0008150058929937083</v>
+        <v>0.9295816780487911</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001519103662690924</v>
       </c>
       <c r="J12">
-        <v>0.1447556766003117</v>
+        <v>0.6138683331596297</v>
       </c>
       <c r="K12">
-        <v>2.486025125994303</v>
+        <v>0.5517221342242138</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1306394150058665</v>
       </c>
       <c r="M12">
-        <v>0.6522493026374079</v>
+        <v>1.708541130121432</v>
       </c>
       <c r="N12">
-        <v>2.28634501107851</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5643941210537662</v>
+      </c>
+      <c r="P12">
+        <v>0.9084874344700076</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.269541074706297</v>
+        <v>1.437726204637983</v>
       </c>
       <c r="C13">
-        <v>0.3528191759853883</v>
+        <v>0.3250459364062124</v>
       </c>
       <c r="D13">
-        <v>0.03085981319209452</v>
+        <v>0.165577447069893</v>
       </c>
       <c r="E13">
-        <v>0.07449823853714932</v>
+        <v>0.1246805503318811</v>
       </c>
       <c r="F13">
-        <v>3.090327945991561</v>
+        <v>1.297429972308223</v>
       </c>
       <c r="G13">
-        <v>0.0008154266057393114</v>
+        <v>0.9274119769212774</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001457916206248022</v>
       </c>
       <c r="J13">
-        <v>0.1442339822219978</v>
+        <v>0.6132021245871186</v>
       </c>
       <c r="K13">
-        <v>2.472159411014189</v>
+        <v>0.5512761603169878</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.130212331905696</v>
       </c>
       <c r="M13">
-        <v>0.6487479674961989</v>
+        <v>1.699314477780035</v>
       </c>
       <c r="N13">
-        <v>2.285502172613462</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5614067593647363</v>
+      </c>
+      <c r="P13">
+        <v>0.9108669221812562</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.228443562407051</v>
+        <v>1.411874140205782</v>
       </c>
       <c r="C14">
-        <v>0.3462186467848198</v>
+        <v>0.3191341055924397</v>
       </c>
       <c r="D14">
-        <v>0.03030053824492285</v>
+        <v>0.1629355499404284</v>
       </c>
       <c r="E14">
-        <v>0.07342618428287295</v>
+        <v>0.1229891374564041</v>
       </c>
       <c r="F14">
-        <v>3.056478599112182</v>
+        <v>1.285600510727633</v>
       </c>
       <c r="G14">
-        <v>0.0008168005419354798</v>
+        <v>0.9187901972765502</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001440835726685741</v>
       </c>
       <c r="J14">
-        <v>0.1425400123018505</v>
+        <v>0.6102516220971381</v>
       </c>
       <c r="K14">
-        <v>2.427062781788948</v>
+        <v>0.5487020233303426</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1287912001105127</v>
       </c>
       <c r="M14">
-        <v>0.6373610656420041</v>
+        <v>1.668865130518043</v>
       </c>
       <c r="N14">
-        <v>2.282839949682824</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5516727489173121</v>
+      </c>
+      <c r="P14">
+        <v>0.9179583085449572</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.203352890050724</v>
+        <v>1.395155861216693</v>
       </c>
       <c r="C15">
-        <v>0.3421900563255349</v>
+        <v>0.3159550541579961</v>
       </c>
       <c r="D15">
-        <v>0.02995838731977329</v>
+        <v>0.1614349394956776</v>
       </c>
       <c r="E15">
-        <v>0.07277204973467022</v>
+        <v>0.1219838519481264</v>
       </c>
       <c r="F15">
-        <v>3.035870499463783</v>
+        <v>1.277559899384912</v>
       </c>
       <c r="G15">
-        <v>0.0008176436093177742</v>
+        <v>0.9127242415938639</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001532077147301969</v>
       </c>
       <c r="J15">
-        <v>0.1415079999005968</v>
+        <v>0.6080496510798525</v>
       </c>
       <c r="K15">
-        <v>2.399532163479961</v>
+        <v>0.546554267880353</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1279074800413866</v>
       </c>
       <c r="M15">
-        <v>0.6304101958155712</v>
+        <v>1.650035894952538</v>
       </c>
       <c r="N15">
-        <v>2.28127487835738</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5457177178038606</v>
+      </c>
+      <c r="P15">
+        <v>0.9219633907743408</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.060774509112036</v>
+        <v>1.305055759669386</v>
       </c>
       <c r="C16">
-        <v>0.3193135234667466</v>
+        <v>0.2951877215247407</v>
       </c>
       <c r="D16">
-        <v>0.02800376152134731</v>
+        <v>0.1521659609374097</v>
       </c>
       <c r="E16">
-        <v>0.06906068496132889</v>
+        <v>0.1160992152460771</v>
       </c>
       <c r="F16">
-        <v>2.919621733236283</v>
+        <v>1.237267375235234</v>
       </c>
       <c r="G16">
-        <v>0.0008224990088983031</v>
+        <v>0.8835110399475212</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001631420834035779</v>
       </c>
       <c r="J16">
-        <v>0.1356762840516552</v>
+        <v>0.598249213285257</v>
       </c>
       <c r="K16">
-        <v>2.243110985228071</v>
+        <v>0.5381170411469398</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1230122279320511</v>
       </c>
       <c r="M16">
-        <v>0.5909270911759918</v>
+        <v>1.54363033375455</v>
       </c>
       <c r="N16">
-        <v>2.273279033407306</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5117303290317778</v>
+      </c>
+      <c r="P16">
+        <v>0.9474951541854608</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.974318540732213</v>
+        <v>1.249841160873871</v>
       </c>
       <c r="C17">
-        <v>0.3054547133020549</v>
+        <v>0.2825959821633148</v>
       </c>
       <c r="D17">
-        <v>0.02680973914915086</v>
+        <v>0.1465250335027406</v>
       </c>
       <c r="E17">
-        <v>0.06681545914985421</v>
+        <v>0.1125319791745873</v>
       </c>
       <c r="F17">
-        <v>2.849874980748552</v>
+        <v>1.213003520058976</v>
       </c>
       <c r="G17">
-        <v>0.0008255004801160321</v>
+        <v>0.865937659825363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001821919800073957</v>
       </c>
       <c r="J17">
-        <v>0.1321686223499938</v>
+        <v>0.5924308852362969</v>
       </c>
       <c r="K17">
-        <v>2.148279045932014</v>
+        <v>0.5330955490469051</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1200605651232536</v>
       </c>
       <c r="M17">
-        <v>0.566999191358363</v>
+        <v>1.478566696746952</v>
       </c>
       <c r="N17">
-        <v>2.269207732860394</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4909891824206412</v>
+      </c>
+      <c r="P17">
+        <v>0.9634290929646205</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.924938198240113</v>
+        <v>1.220344447846628</v>
       </c>
       <c r="C18">
-        <v>0.2975433450149865</v>
+        <v>0.274312492562899</v>
       </c>
       <c r="D18">
-        <v>0.02612469448495602</v>
+        <v>0.1430065756545815</v>
       </c>
       <c r="E18">
-        <v>0.06553504545590982</v>
+        <v>0.1104255111417487</v>
       </c>
       <c r="F18">
-        <v>2.810303946593493</v>
+        <v>1.20131814472289</v>
       </c>
       <c r="G18">
-        <v>0.0008272357443174752</v>
+        <v>0.8580162740161512</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001715030497173586</v>
       </c>
       <c r="J18">
-        <v>0.1301754416420948</v>
+        <v>0.5901963649302218</v>
       </c>
       <c r="K18">
-        <v>2.094120560763656</v>
+        <v>0.5317447904523931</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1184248018669578</v>
       </c>
       <c r="M18">
-        <v>0.5533374991165516</v>
+        <v>1.441706830208034</v>
       </c>
       <c r="N18">
-        <v>2.267159421094831</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4790992137638028</v>
+      </c>
+      <c r="P18">
+        <v>0.9736271019976073</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.908276169182329</v>
+        <v>1.208629564584953</v>
       </c>
       <c r="C19">
-        <v>0.2948745580643219</v>
+        <v>0.2723588744643735</v>
       </c>
       <c r="D19">
-        <v>0.02589303365420648</v>
+        <v>0.1420415255928873</v>
       </c>
       <c r="E19">
-        <v>0.06510334832152154</v>
+        <v>0.1097686588186555</v>
       </c>
       <c r="F19">
-        <v>2.796996742120641</v>
+        <v>1.195760858056317</v>
       </c>
       <c r="G19">
-        <v>0.0008278248492156687</v>
+        <v>0.8537625882654822</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001885435247201528</v>
       </c>
       <c r="J19">
-        <v>0.1295046402106763</v>
+        <v>0.588646725375483</v>
       </c>
       <c r="K19">
-        <v>2.075847227886527</v>
+        <v>0.5301526387942701</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1178402324018464</v>
       </c>
       <c r="M19">
-        <v>0.5487285988188972</v>
+        <v>1.428859738954515</v>
       </c>
       <c r="N19">
-        <v>2.266515096893599</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4750781112372096</v>
+      </c>
+      <c r="P19">
+        <v>0.9763745568220124</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.983485485580786</v>
+        <v>1.255893139856795</v>
       </c>
       <c r="C20">
-        <v>0.3069237134949674</v>
+        <v>0.283845136661057</v>
       </c>
       <c r="D20">
-        <v>0.02693666321592758</v>
+        <v>0.1471010848184591</v>
       </c>
       <c r="E20">
-        <v>0.06705331711482643</v>
+        <v>0.1129046622447909</v>
       </c>
       <c r="F20">
-        <v>2.857242513645915</v>
+        <v>1.215735280401375</v>
       </c>
       <c r="G20">
-        <v>0.0008251800585371274</v>
+        <v>0.8679575089322071</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001776104403470313</v>
       </c>
       <c r="J20">
-        <v>0.1325394707343008</v>
+        <v>0.5931248914506853</v>
       </c>
       <c r="K20">
-        <v>2.158333470003356</v>
+        <v>0.5337406715949342</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1203763168695886</v>
       </c>
       <c r="M20">
-        <v>0.5695357516866721</v>
+        <v>1.485523866841135</v>
       </c>
       <c r="N20">
-        <v>2.269610478616983</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4931933421888957</v>
+      </c>
+      <c r="P20">
+        <v>0.9617957076712713</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.240497502884352</v>
+        <v>1.416940635787284</v>
       </c>
       <c r="C21">
-        <v>0.3481543482652967</v>
+        <v>0.3220908505764726</v>
       </c>
       <c r="D21">
-        <v>0.03046472222903418</v>
+        <v>0.1640349068277942</v>
       </c>
       <c r="E21">
-        <v>0.07374054162058385</v>
+        <v>0.1235630814653668</v>
       </c>
       <c r="F21">
-        <v>3.06639460811806</v>
+        <v>1.286710161270634</v>
       </c>
       <c r="G21">
-        <v>0.000816396675776511</v>
+        <v>0.9190107765670064</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001705597695973893</v>
       </c>
       <c r="J21">
-        <v>0.1430363984160863</v>
+        <v>0.6099520302297634</v>
       </c>
       <c r="K21">
-        <v>2.440289333526607</v>
+        <v>0.5478006266316129</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.129158775165223</v>
       </c>
       <c r="M21">
-        <v>0.6407006439070599</v>
+        <v>1.677247988162236</v>
       </c>
       <c r="N21">
-        <v>2.283608154180726</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5545256367803546</v>
+      </c>
+      <c r="P21">
+        <v>0.9148557714599264</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.412104932092632</v>
+        <v>1.525636182933141</v>
       </c>
       <c r="C22">
-        <v>0.3757340901016448</v>
+        <v>0.3460568810802727</v>
       </c>
       <c r="D22">
-        <v>0.03278897563796335</v>
+        <v>0.1748474898637227</v>
       </c>
       <c r="E22">
-        <v>0.07822253960040015</v>
+        <v>0.1305781580878396</v>
       </c>
       <c r="F22">
-        <v>3.208624644847106</v>
+        <v>1.337659934929604</v>
       </c>
       <c r="G22">
-        <v>0.0008107243783201501</v>
+        <v>0.9565122525766583</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001765727964700758</v>
       </c>
       <c r="J22">
-        <v>0.1501433552244507</v>
+        <v>0.623091369846577</v>
       </c>
       <c r="K22">
-        <v>2.628621202170677</v>
+        <v>0.5596221273344355</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1351385283683939</v>
       </c>
       <c r="M22">
-        <v>0.6882633144858019</v>
+        <v>1.804031967175689</v>
       </c>
       <c r="N22">
-        <v>2.295657431862253</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5950020756015775</v>
+      </c>
+      <c r="P22">
+        <v>0.8863825566118742</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.32015402264733</v>
+        <v>1.4706485348635</v>
       </c>
       <c r="C23">
-        <v>0.3609511527942857</v>
+        <v>0.3317413765365984</v>
       </c>
       <c r="D23">
-        <v>0.03154662877015113</v>
+        <v>0.1686708808973094</v>
       </c>
       <c r="E23">
-        <v>0.07581950387289993</v>
+        <v>0.1267260618796691</v>
       </c>
       <c r="F23">
-        <v>3.13217209722049</v>
+        <v>1.313160073740235</v>
       </c>
       <c r="G23">
-        <v>0.0008137461235078184</v>
+        <v>0.9391630453648645</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001394462244686423</v>
       </c>
       <c r="J23">
-        <v>0.1463261324554921</v>
+        <v>0.6174179229834493</v>
       </c>
       <c r="K23">
-        <v>2.527701858981686</v>
+        <v>0.5552590200564254</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1319890712867178</v>
       </c>
       <c r="M23">
-        <v>0.6627740580941222</v>
+        <v>1.736961134672271</v>
       </c>
       <c r="N23">
-        <v>2.288946172381486</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.573366823497274</v>
+      </c>
+      <c r="P23">
+        <v>0.9027148023748808</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.979340105388872</v>
+        <v>1.257914225707282</v>
       </c>
       <c r="C24">
-        <v>0.3062594043803983</v>
+        <v>0.2809704304102922</v>
       </c>
       <c r="D24">
-        <v>0.02687927647192367</v>
+        <v>0.1462274037141498</v>
       </c>
       <c r="E24">
-        <v>0.06694574929277763</v>
+        <v>0.1125885009648222</v>
       </c>
       <c r="F24">
-        <v>2.853910016851273</v>
+        <v>1.218968959392456</v>
       </c>
       <c r="G24">
-        <v>0.0008253248909138752</v>
+        <v>0.8714164858035645</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001283710250373105</v>
       </c>
       <c r="J24">
-        <v>0.1323717375490219</v>
+        <v>0.5950198900176815</v>
       </c>
       <c r="K24">
-        <v>2.15378674497822</v>
+        <v>0.5365913591588978</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1203262379465642</v>
       </c>
       <c r="M24">
-        <v>0.5683886791885939</v>
+        <v>1.483420490585843</v>
       </c>
       <c r="N24">
-        <v>2.269427489785116</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4922017981972004</v>
+      </c>
+      <c r="P24">
+        <v>0.9645122483695587</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.624724368199992</v>
+        <v>1.029268727893225</v>
       </c>
       <c r="C25">
-        <v>0.2495080256077529</v>
+        <v>0.2280461936977076</v>
       </c>
       <c r="D25">
-        <v>0.0219093092939957</v>
+        <v>0.1225942796821471</v>
       </c>
       <c r="E25">
-        <v>0.05778736105017757</v>
+        <v>0.09790270094953613</v>
       </c>
       <c r="F25">
-        <v>2.574299306888719</v>
+        <v>1.123628331502701</v>
       </c>
       <c r="G25">
-        <v>0.0008381598546904486</v>
+        <v>0.8031577406192554</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002776520590097142</v>
       </c>
       <c r="J25">
-        <v>0.1182361123458904</v>
+        <v>0.5735711137840269</v>
       </c>
       <c r="K25">
-        <v>1.764944151823698</v>
+        <v>0.5186661947039894</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1084362844242435</v>
       </c>
       <c r="M25">
-        <v>0.4703694384306942</v>
+        <v>1.212653641392137</v>
       </c>
       <c r="N25">
-        <v>2.25945856480611</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.4060648334520778</v>
+      </c>
+      <c r="P25">
+        <v>1.035029889866344</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8684344697522874</v>
+        <v>0.8099656768796137</v>
       </c>
       <c r="C2">
-        <v>0.1868353142333916</v>
+        <v>0.2166562992484273</v>
       </c>
       <c r="D2">
-        <v>0.10467508831195</v>
+        <v>0.1143613351578807</v>
       </c>
       <c r="E2">
-        <v>0.08727865772070942</v>
+        <v>0.08993784805833371</v>
       </c>
       <c r="F2">
-        <v>1.064997573577813</v>
+        <v>0.9838262733556746</v>
       </c>
       <c r="G2">
-        <v>0.7632125944217023</v>
+        <v>0.6725541686825522</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004320676982796812</v>
+        <v>0.002922075259792045</v>
       </c>
       <c r="J2">
-        <v>0.563281204157704</v>
+        <v>0.5373244079971897</v>
       </c>
       <c r="K2">
-        <v>0.5120283062248348</v>
+        <v>0.4457854306720677</v>
       </c>
       <c r="L2">
-        <v>0.1003376509726408</v>
+        <v>0.2058124902283005</v>
       </c>
       <c r="M2">
-        <v>1.016491736312872</v>
+        <v>0.1332264773718386</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09895071938696276</v>
       </c>
       <c r="O2">
-        <v>0.3435915440987998</v>
+        <v>1.006725573792608</v>
       </c>
       <c r="P2">
-        <v>1.093361904414074</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3440664445659039</v>
+      </c>
+      <c r="R2">
+        <v>1.026135653231316</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7552461920764415</v>
+        <v>0.707970202715984</v>
       </c>
       <c r="C3">
-        <v>0.1615872844464974</v>
+        <v>0.1859462822212237</v>
       </c>
       <c r="D3">
-        <v>0.09330082287048214</v>
+        <v>0.1016140447338074</v>
       </c>
       <c r="E3">
-        <v>0.08043827440167917</v>
+        <v>0.08281582166942769</v>
       </c>
       <c r="F3">
-        <v>1.023855533716834</v>
+        <v>0.949955621467879</v>
       </c>
       <c r="G3">
-        <v>0.7341819475563653</v>
+        <v>0.6533594588604643</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006435384889458273</v>
+        <v>0.004370029929981367</v>
       </c>
       <c r="J3">
-        <v>0.5555024150042556</v>
+        <v>0.5278609634000873</v>
       </c>
       <c r="K3">
-        <v>0.5056525121594362</v>
+        <v>0.4436504735864411</v>
       </c>
       <c r="L3">
-        <v>0.09505005984773618</v>
+        <v>0.2093985666159313</v>
       </c>
       <c r="M3">
-        <v>0.8833594839526313</v>
+        <v>0.1293424496712099</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09386217964252808</v>
       </c>
       <c r="O3">
-        <v>0.3017277973970138</v>
+        <v>0.8759273611046297</v>
       </c>
       <c r="P3">
-        <v>1.132855570509001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3020524892775995</v>
+      </c>
+      <c r="R3">
+        <v>1.064548116974075</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6855751385629389</v>
+        <v>0.644943477426267</v>
       </c>
       <c r="C4">
-        <v>0.1464201480115008</v>
+        <v>0.1675464632628092</v>
       </c>
       <c r="D4">
-        <v>0.0864347177798237</v>
+        <v>0.09393408310127427</v>
       </c>
       <c r="E4">
-        <v>0.07634526620039495</v>
+        <v>0.07855702525446517</v>
       </c>
       <c r="F4">
-        <v>0.9996420353310498</v>
+        <v>0.9299609461826392</v>
       </c>
       <c r="G4">
-        <v>0.7171125957217299</v>
+        <v>0.6423053210291556</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008050798990530961</v>
+        <v>0.00550903383053436</v>
       </c>
       <c r="J4">
-        <v>0.5512058111566489</v>
+        <v>0.5221808162794161</v>
       </c>
       <c r="K4">
-        <v>0.5020810709074688</v>
+        <v>0.4425367159288243</v>
       </c>
       <c r="L4">
-        <v>0.0919293766415521</v>
+        <v>0.2115890436962857</v>
       </c>
       <c r="M4">
-        <v>0.8018500651849081</v>
+        <v>0.1276359844781023</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09085943123688622</v>
       </c>
       <c r="O4">
-        <v>0.2762219762541704</v>
+        <v>0.7957145013976685</v>
       </c>
       <c r="P4">
-        <v>1.157900853014482</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2764252259226865</v>
+      </c>
+      <c r="R4">
+        <v>1.088881028315509</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6563984608982025</v>
+        <v>0.6184584182124127</v>
       </c>
       <c r="C5">
-        <v>0.1406770041153322</v>
+        <v>0.160536394159422</v>
       </c>
       <c r="D5">
-        <v>0.08376151463306769</v>
+        <v>0.09093794819828815</v>
       </c>
       <c r="E5">
-        <v>0.07472649106169982</v>
+        <v>0.07687234462659021</v>
       </c>
       <c r="F5">
-        <v>0.9893050946812068</v>
+        <v>0.9213254117122816</v>
       </c>
       <c r="G5">
-        <v>0.7096305408952333</v>
+        <v>0.6373270738108943</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008869337707026581</v>
+        <v>0.006127963020092331</v>
       </c>
       <c r="J5">
-        <v>0.549210735686529</v>
+        <v>0.5195488401399331</v>
       </c>
       <c r="K5">
-        <v>0.5001956173172708</v>
+        <v>0.441669055463958</v>
       </c>
       <c r="L5">
-        <v>0.09067293956452005</v>
+        <v>0.2122587558023277</v>
       </c>
       <c r="M5">
-        <v>0.7685247827274964</v>
+        <v>0.1269825907166542</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08965052638026805</v>
       </c>
       <c r="O5">
-        <v>0.265874715151952</v>
+        <v>0.762889943261456</v>
       </c>
       <c r="P5">
-        <v>1.16792638504316</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2660216446411177</v>
+      </c>
+      <c r="R5">
+        <v>1.098679388335018</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6506498525653512</v>
+        <v>0.6132013599801951</v>
       </c>
       <c r="C6">
-        <v>0.1401695231442091</v>
+        <v>0.1598456369482051</v>
       </c>
       <c r="D6">
-        <v>0.08343790567667497</v>
+        <v>0.09056297997596374</v>
       </c>
       <c r="E6">
-        <v>0.07448812568423335</v>
+        <v>0.07662295470572644</v>
       </c>
       <c r="F6">
-        <v>0.9867222305654337</v>
+        <v>0.9190726899453594</v>
       </c>
       <c r="G6">
-        <v>0.7075356518454612</v>
+        <v>0.6357195666052604</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00911962077431383</v>
+        <v>0.006358629612782885</v>
       </c>
       <c r="J6">
-        <v>0.5484458176269271</v>
+        <v>0.5186878246718578</v>
       </c>
       <c r="K6">
-        <v>0.4992608668754919</v>
+        <v>0.4409649681009959</v>
       </c>
       <c r="L6">
-        <v>0.09044790643473277</v>
+        <v>0.2121019198810004</v>
       </c>
       <c r="M6">
-        <v>0.7628023751008186</v>
+        <v>0.1267287359427591</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08943388980326006</v>
       </c>
       <c r="O6">
-        <v>0.2641609711214556</v>
+        <v>0.757254012617409</v>
       </c>
       <c r="P6">
-        <v>1.169144686882611</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2642980027714934</v>
+      </c>
+      <c r="R6">
+        <v>1.099951359309884</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6827121623976495</v>
+        <v>0.6417439735969594</v>
       </c>
       <c r="C7">
-        <v>0.1475501099427134</v>
+        <v>0.1682213895537359</v>
       </c>
       <c r="D7">
-        <v>0.08672279716007836</v>
+        <v>0.0944526961062806</v>
       </c>
       <c r="E7">
-        <v>0.07640234422335013</v>
+        <v>0.07867964829684126</v>
       </c>
       <c r="F7">
-        <v>0.9970947794583225</v>
+        <v>0.9261354660425951</v>
       </c>
       <c r="G7">
-        <v>0.7146532699236161</v>
+        <v>0.6431370113939465</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00834393923705079</v>
+        <v>0.005844806061551466</v>
       </c>
       <c r="J7">
-        <v>0.5499762985485006</v>
+        <v>0.5155584183951163</v>
       </c>
       <c r="K7">
-        <v>0.5003444703293489</v>
+        <v>0.440340933154399</v>
       </c>
       <c r="L7">
-        <v>0.09186267356241729</v>
+        <v>0.2105802839531279</v>
       </c>
       <c r="M7">
-        <v>0.8008750911627089</v>
+        <v>0.1270009737943987</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09078352898836783</v>
       </c>
       <c r="O7">
-        <v>0.2760866694856432</v>
+        <v>0.7936609320476293</v>
       </c>
       <c r="P7">
-        <v>1.156798513285864</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2761373401697824</v>
+      </c>
+      <c r="R7">
+        <v>1.087559016963247</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8261331169100004</v>
+        <v>0.7700640851915921</v>
       </c>
       <c r="C8">
-        <v>0.1796642196422198</v>
+        <v>0.2059609292183495</v>
       </c>
       <c r="D8">
-        <v>0.1011584689920113</v>
+        <v>0.1111439638633414</v>
       </c>
       <c r="E8">
-        <v>0.08500167368191214</v>
+        <v>0.08778527763948674</v>
       </c>
       <c r="F8">
-        <v>1.047402710265843</v>
+        <v>0.9642125859468891</v>
       </c>
       <c r="G8">
-        <v>0.7499206279360209</v>
+        <v>0.6731704818044335</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00531623888145738</v>
+        <v>0.003768792628265238</v>
       </c>
       <c r="J8">
-        <v>0.5589114838079183</v>
+        <v>0.5147575869977885</v>
       </c>
       <c r="K8">
-        <v>0.5074983286382491</v>
+        <v>0.4408704898763283</v>
       </c>
       <c r="L8">
-        <v>0.09842171750827333</v>
+        <v>0.2052607567706595</v>
       </c>
       <c r="M8">
-        <v>0.9698228374384996</v>
+        <v>0.130421295109084</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09706881760467923</v>
       </c>
       <c r="O8">
-        <v>0.3291158653887791</v>
+        <v>0.957218320471668</v>
       </c>
       <c r="P8">
-        <v>1.105242232812255</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3290338329274221</v>
+      </c>
+      <c r="R8">
+        <v>1.036577241160899</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.110775731313083</v>
+        <v>1.024740842601688</v>
       </c>
       <c r="C9">
-        <v>0.2434474590207429</v>
+        <v>0.2834630905154256</v>
       </c>
       <c r="D9">
-        <v>0.1298964774082236</v>
+        <v>0.1436928587873041</v>
       </c>
       <c r="E9">
-        <v>0.1026383505710946</v>
+        <v>0.1062274653383213</v>
       </c>
       <c r="F9">
-        <v>1.159289573899741</v>
+        <v>1.055007342136193</v>
       </c>
       <c r="G9">
-        <v>0.8297874638786595</v>
+        <v>0.7310151299462433</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001633988575103551</v>
+        <v>0.001289065636537856</v>
       </c>
       <c r="J9">
-        <v>0.582596485221913</v>
+        <v>0.5356461207475434</v>
       </c>
       <c r="K9">
-        <v>0.5274760300294972</v>
+        <v>0.4486532362994353</v>
       </c>
       <c r="L9">
-        <v>0.112445855976425</v>
+        <v>0.1970028268743285</v>
       </c>
       <c r="M9">
-        <v>1.304553011568004</v>
+        <v>0.1441522247869678</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1105557391172383</v>
       </c>
       <c r="O9">
-        <v>0.4349172466541305</v>
+        <v>1.284132046077332</v>
       </c>
       <c r="P9">
-        <v>1.012765541766608</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4348606198699372</v>
+      </c>
+      <c r="R9">
+        <v>0.9460295489845905</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.318400496036816</v>
+        <v>1.206012668392646</v>
       </c>
       <c r="C10">
-        <v>0.2932253188566847</v>
+        <v>0.3408438283156272</v>
       </c>
       <c r="D10">
-        <v>0.1519072472429741</v>
+        <v>0.1700571609770378</v>
       </c>
       <c r="E10">
-        <v>0.1162906612781711</v>
+        <v>0.1209046290469509</v>
       </c>
       <c r="F10">
-        <v>1.246657857392506</v>
+        <v>1.117139306293581</v>
       </c>
       <c r="G10">
-        <v>0.8919919235550111</v>
+        <v>0.7955337527930482</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0009247430325212136</v>
+        <v>0.001080205490904262</v>
       </c>
       <c r="J10">
-        <v>0.6021831043901074</v>
+        <v>0.5213431447160701</v>
       </c>
       <c r="K10">
-        <v>0.5433399717630678</v>
+        <v>0.4512077172040847</v>
       </c>
       <c r="L10">
-        <v>0.1234884756336925</v>
+        <v>0.1893621767697979</v>
       </c>
       <c r="M10">
-        <v>1.552610469497182</v>
+        <v>0.1559509974766797</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.121106850114991</v>
       </c>
       <c r="O10">
-        <v>0.5141115609987139</v>
+        <v>1.518836649220304</v>
       </c>
       <c r="P10">
-        <v>0.9485941348534688</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5129242165657573</v>
+      </c>
+      <c r="R10">
+        <v>0.8811545816683513</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.408685410312671</v>
+        <v>1.278807769782901</v>
       </c>
       <c r="C11">
-        <v>0.3185212168395424</v>
+        <v>0.364247299184683</v>
       </c>
       <c r="D11">
-        <v>0.16264725187294</v>
+        <v>0.1853532517459513</v>
       </c>
       <c r="E11">
-        <v>0.122796428069563</v>
+        <v>0.1286015286132809</v>
       </c>
       <c r="F11">
-        <v>1.284068948076438</v>
+        <v>1.128262553071977</v>
       </c>
       <c r="G11">
-        <v>0.9176365426801993</v>
+        <v>0.8564117057976546</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001456370888154979</v>
+        <v>0.001805383106193936</v>
       </c>
       <c r="J11">
-        <v>0.6098336752057349</v>
+        <v>0.4654819668383254</v>
       </c>
       <c r="K11">
-        <v>0.5482962974211958</v>
+        <v>0.4439835609092597</v>
       </c>
       <c r="L11">
-        <v>0.12862213837181</v>
+        <v>0.1829640938017931</v>
       </c>
       <c r="M11">
-        <v>1.665265256210887</v>
+        <v>0.1584638811467407</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1258932250217129</v>
       </c>
       <c r="O11">
-        <v>0.5505334535375184</v>
+        <v>1.613282899782348</v>
       </c>
       <c r="P11">
-        <v>0.9187265666399504</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5470902278942305</v>
+      </c>
+      <c r="R11">
+        <v>0.8483390284907504</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.445123994890025</v>
+        <v>1.30769846426557</v>
       </c>
       <c r="C12">
-        <v>0.3271203097920363</v>
+        <v>0.3713477518947457</v>
       </c>
       <c r="D12">
-        <v>0.1664570670574506</v>
+        <v>0.1912260027417432</v>
       </c>
       <c r="E12">
-        <v>0.1252168967932761</v>
+        <v>0.1315701273607282</v>
       </c>
       <c r="F12">
-        <v>1.300575841493682</v>
+        <v>1.132689176110389</v>
       </c>
       <c r="G12">
-        <v>0.9295816780487911</v>
+        <v>0.8864457024503736</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001519103662690924</v>
+        <v>0.001877766138361103</v>
       </c>
       <c r="J12">
-        <v>0.6138683331596297</v>
+        <v>0.4411352494362433</v>
       </c>
       <c r="K12">
-        <v>0.5517221342242138</v>
+        <v>0.4417539998386744</v>
       </c>
       <c r="L12">
-        <v>0.1306394150058665</v>
+        <v>0.1807581546470516</v>
       </c>
       <c r="M12">
-        <v>1.708541130121432</v>
+        <v>0.1596595659913369</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1277606299056018</v>
       </c>
       <c r="O12">
-        <v>0.5643941210537662</v>
+        <v>1.648049125524807</v>
       </c>
       <c r="P12">
-        <v>0.9084874344700076</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5598634575731438</v>
+      </c>
+      <c r="R12">
+        <v>0.8363443757683449</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.437726204637983</v>
+        <v>1.301927660741768</v>
       </c>
       <c r="C13">
-        <v>0.3250459364062124</v>
+        <v>0.369615207037441</v>
       </c>
       <c r="D13">
-        <v>0.165577447069893</v>
+        <v>0.1898833786589194</v>
       </c>
       <c r="E13">
-        <v>0.1246805503318811</v>
+        <v>0.1309112155706842</v>
       </c>
       <c r="F13">
-        <v>1.297429972308223</v>
+        <v>1.132191843778131</v>
       </c>
       <c r="G13">
-        <v>0.9274119769212774</v>
+        <v>0.8801285685337774</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001457916206248022</v>
+        <v>0.001806322537087013</v>
       </c>
       <c r="J13">
-        <v>0.6132021245871186</v>
+        <v>0.446672013229275</v>
       </c>
       <c r="K13">
-        <v>0.5512761603169878</v>
+        <v>0.4425131575762649</v>
       </c>
       <c r="L13">
-        <v>0.130212331905696</v>
+        <v>0.1813270792705772</v>
       </c>
       <c r="M13">
-        <v>1.699314477780035</v>
+        <v>0.1595151834908144</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1273662346762521</v>
       </c>
       <c r="O13">
-        <v>0.5614067593647363</v>
+        <v>1.640723101171943</v>
       </c>
       <c r="P13">
-        <v>0.9108669221812562</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5571208284865676</v>
+      </c>
+      <c r="R13">
+        <v>0.8390369498995334</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411874140205782</v>
+        <v>1.281377180641158</v>
       </c>
       <c r="C14">
-        <v>0.3191341055924397</v>
+        <v>0.3647454982748286</v>
       </c>
       <c r="D14">
-        <v>0.1629355499404284</v>
+        <v>0.1858030391751697</v>
       </c>
       <c r="E14">
-        <v>0.1229891374564041</v>
+        <v>0.1288373214454914</v>
       </c>
       <c r="F14">
-        <v>1.285600510727633</v>
+        <v>1.128822882812486</v>
       </c>
       <c r="G14">
-        <v>0.9187901972765502</v>
+        <v>0.8589406387541487</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001440835726685741</v>
+        <v>0.001787155482269043</v>
       </c>
       <c r="J14">
-        <v>0.6102516220971381</v>
+        <v>0.4636136767145302</v>
       </c>
       <c r="K14">
-        <v>0.5487020233303426</v>
+        <v>0.4439200759265276</v>
       </c>
       <c r="L14">
-        <v>0.1287912001105127</v>
+        <v>0.1828232551294882</v>
       </c>
       <c r="M14">
-        <v>1.668865130518043</v>
+        <v>0.1586105044108059</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1260501507298528</v>
       </c>
       <c r="O14">
-        <v>0.5516727489173121</v>
+        <v>1.616213314370015</v>
       </c>
       <c r="P14">
-        <v>0.9179583085449572</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5481447822682739</v>
+      </c>
+      <c r="R14">
+        <v>0.847400342188962</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.395155861216693</v>
+        <v>1.267868742624898</v>
       </c>
       <c r="C15">
-        <v>0.3159550541579961</v>
+        <v>0.3621394664189381</v>
       </c>
       <c r="D15">
-        <v>0.1614349394956776</v>
+        <v>0.1834722888744977</v>
       </c>
       <c r="E15">
-        <v>0.1219838519481264</v>
+        <v>0.1276107062523728</v>
       </c>
       <c r="F15">
-        <v>1.277559899384912</v>
+        <v>1.125784059706376</v>
       </c>
       <c r="G15">
-        <v>0.9127242415938639</v>
+        <v>0.8458927888097492</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001532077147301969</v>
+        <v>0.001892896361726848</v>
       </c>
       <c r="J15">
-        <v>0.6080496510798525</v>
+        <v>0.473208523201734</v>
       </c>
       <c r="K15">
-        <v>0.546554267880353</v>
+        <v>0.4441956670873282</v>
       </c>
       <c r="L15">
-        <v>0.1279074800413866</v>
+        <v>0.1835408080839791</v>
       </c>
       <c r="M15">
-        <v>1.650035894952538</v>
+        <v>0.1578233991272313</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1252292406254085</v>
       </c>
       <c r="O15">
-        <v>0.5457177178038606</v>
+        <v>1.600819987111066</v>
       </c>
       <c r="P15">
-        <v>0.9219633907743408</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5426233595834944</v>
+      </c>
+      <c r="R15">
+        <v>0.8522889627207118</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.305055759669386</v>
+        <v>1.194227114272564</v>
       </c>
       <c r="C16">
-        <v>0.2951877215247407</v>
+        <v>0.343092640753639</v>
       </c>
       <c r="D16">
-        <v>0.1521659609374097</v>
+        <v>0.1700948518005276</v>
       </c>
       <c r="E16">
-        <v>0.1160992152460771</v>
+        <v>0.1206476981027258</v>
       </c>
       <c r="F16">
-        <v>1.237267375235234</v>
+        <v>1.109791767306405</v>
       </c>
       <c r="G16">
-        <v>0.8835110399475212</v>
+        <v>0.7859178281306498</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001631420834035779</v>
+        <v>0.001915246727477005</v>
       </c>
       <c r="J16">
-        <v>0.598249213285257</v>
+        <v>0.5213860504716621</v>
       </c>
       <c r="K16">
-        <v>0.5381170411469398</v>
+        <v>0.4473939927914259</v>
       </c>
       <c r="L16">
-        <v>0.1230122279320511</v>
+        <v>0.1882562430965216</v>
       </c>
       <c r="M16">
-        <v>1.54363033375455</v>
+        <v>0.1540895976527139</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1206565765033361</v>
       </c>
       <c r="O16">
-        <v>0.5117303290317778</v>
+        <v>1.510900551206049</v>
       </c>
       <c r="P16">
-        <v>0.9474951541854608</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5106611925447524</v>
+      </c>
+      <c r="R16">
+        <v>0.8812888314656675</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.249841160873871</v>
+        <v>1.147810185384856</v>
       </c>
       <c r="C17">
-        <v>0.2825959821633148</v>
+        <v>0.3303568496831417</v>
       </c>
       <c r="D17">
-        <v>0.1465250335027406</v>
+        <v>0.1625038059825386</v>
       </c>
       <c r="E17">
-        <v>0.1125319791745873</v>
+        <v>0.1165796520576343</v>
       </c>
       <c r="F17">
-        <v>1.213003520058976</v>
+        <v>1.097110592626876</v>
       </c>
       <c r="G17">
-        <v>0.865937659825363</v>
+        <v>0.7572193249531125</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001821919800073957</v>
+        <v>0.002024856448635148</v>
       </c>
       <c r="J17">
-        <v>0.5924308852362969</v>
+        <v>0.5417965516693926</v>
       </c>
       <c r="K17">
-        <v>0.5330955490469051</v>
+        <v>0.4480804925251149</v>
       </c>
       <c r="L17">
-        <v>0.1200605651232536</v>
+        <v>0.1907234300813521</v>
       </c>
       <c r="M17">
-        <v>1.478566696746952</v>
+        <v>0.1514033862694149</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1178745503619609</v>
       </c>
       <c r="O17">
-        <v>0.4909891824206412</v>
+        <v>1.45326024003495</v>
       </c>
       <c r="P17">
-        <v>0.9634290929646205</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4907734365058687</v>
+      </c>
+      <c r="R17">
+        <v>0.8987048185491862</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.220344447846628</v>
+        <v>1.122770017165919</v>
       </c>
       <c r="C18">
-        <v>0.274312492562899</v>
+        <v>0.3214860850192167</v>
       </c>
       <c r="D18">
-        <v>0.1430065756545815</v>
+        <v>0.158052327446299</v>
       </c>
       <c r="E18">
-        <v>0.1104255111417487</v>
+        <v>0.1142410737161619</v>
       </c>
       <c r="F18">
-        <v>1.20131814472289</v>
+        <v>1.090754138152136</v>
       </c>
       <c r="G18">
-        <v>0.8580162740161512</v>
+        <v>0.7452877985277127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001715030497173586</v>
+        <v>0.001810336975855087</v>
       </c>
       <c r="J18">
-        <v>0.5901963649302218</v>
+        <v>0.5507597155995256</v>
       </c>
       <c r="K18">
-        <v>0.5317447904523931</v>
+        <v>0.4493013696899126</v>
       </c>
       <c r="L18">
-        <v>0.1184248018669578</v>
+        <v>0.1924513863028068</v>
       </c>
       <c r="M18">
-        <v>1.441706830208034</v>
+        <v>0.150223701309173</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.11632484836462</v>
       </c>
       <c r="O18">
-        <v>0.4790992137638028</v>
+        <v>1.419711016848311</v>
       </c>
       <c r="P18">
-        <v>0.9736271019976073</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4792388605757907</v>
+      </c>
+      <c r="R18">
+        <v>0.9092026085048452</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.208629564584953</v>
+        <v>1.112604667317783</v>
       </c>
       <c r="C19">
-        <v>0.2723588744643735</v>
+        <v>0.3193273735820128</v>
       </c>
       <c r="D19">
-        <v>0.1420415255928873</v>
+        <v>0.1568096896064048</v>
       </c>
       <c r="E19">
-        <v>0.1097686588186555</v>
+        <v>0.1135146198349588</v>
       </c>
       <c r="F19">
-        <v>1.195760858056317</v>
+        <v>1.08693122518703</v>
       </c>
       <c r="G19">
-        <v>0.8537625882654822</v>
+        <v>0.7402463456570132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001885435247201528</v>
+        <v>0.001980776098722714</v>
       </c>
       <c r="J19">
-        <v>0.588646725375483</v>
+        <v>0.5524011181310726</v>
       </c>
       <c r="K19">
-        <v>0.5301526387942701</v>
+        <v>0.4486518817268745</v>
       </c>
       <c r="L19">
-        <v>0.1178402324018464</v>
+        <v>0.1926468717607754</v>
       </c>
       <c r="M19">
-        <v>1.428859738954515</v>
+        <v>0.149421408914499</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1157690184161595</v>
       </c>
       <c r="O19">
-        <v>0.4750781112372096</v>
+        <v>1.407842967309506</v>
       </c>
       <c r="P19">
-        <v>0.9763745568220124</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4753160642106664</v>
+      </c>
+      <c r="R19">
+        <v>0.9122386123345532</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.255893139856795</v>
+        <v>1.152961143498942</v>
       </c>
       <c r="C20">
-        <v>0.283845136661057</v>
+        <v>0.3316590047491275</v>
       </c>
       <c r="D20">
-        <v>0.1471010848184591</v>
+        <v>0.1632662225431147</v>
       </c>
       <c r="E20">
-        <v>0.1129046622447909</v>
+        <v>0.1169998363364293</v>
       </c>
       <c r="F20">
-        <v>1.215735280401375</v>
+        <v>1.098718566635256</v>
       </c>
       <c r="G20">
-        <v>0.8679575089322071</v>
+        <v>0.7601362758354639</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001776104403470313</v>
+        <v>0.001984765663467947</v>
       </c>
       <c r="J20">
-        <v>0.5931248914506853</v>
+        <v>0.5400772367671891</v>
       </c>
       <c r="K20">
-        <v>0.5337406715949342</v>
+        <v>0.448154639552854</v>
       </c>
       <c r="L20">
-        <v>0.1203763168695886</v>
+        <v>0.1905136248206212</v>
       </c>
       <c r="M20">
-        <v>1.485523866841135</v>
+        <v>0.1517421753683266</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1181731507193362</v>
       </c>
       <c r="O20">
-        <v>0.4931933421888957</v>
+        <v>1.459524084227297</v>
       </c>
       <c r="P20">
-        <v>0.9617957076712713</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4929008641512027</v>
+      </c>
+      <c r="R20">
+        <v>0.896915387042192</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.416940635787284</v>
+        <v>1.283173256004886</v>
       </c>
       <c r="C21">
-        <v>0.3220908505764726</v>
+        <v>0.3655170001782722</v>
       </c>
       <c r="D21">
-        <v>0.1640349068277942</v>
+        <v>0.1882235185906609</v>
       </c>
       <c r="E21">
-        <v>0.1235630814653668</v>
+        <v>0.129775602375517</v>
       </c>
       <c r="F21">
-        <v>1.286710161270634</v>
+        <v>1.122524849964137</v>
       </c>
       <c r="G21">
-        <v>0.9190107765670064</v>
+        <v>0.8750370939580563</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001705597695973893</v>
+        <v>0.002104605357114764</v>
       </c>
       <c r="J21">
-        <v>0.6099520302297634</v>
+        <v>0.4421422642513875</v>
       </c>
       <c r="K21">
-        <v>0.5478006266316129</v>
+        <v>0.4399115156989311</v>
       </c>
       <c r="L21">
-        <v>0.129158775165223</v>
+        <v>0.1811460543767254</v>
       </c>
       <c r="M21">
-        <v>1.677247988162236</v>
+        <v>0.1573995477304244</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1263477524578533</v>
       </c>
       <c r="O21">
-        <v>0.5545256367803546</v>
+        <v>1.618737174132093</v>
       </c>
       <c r="P21">
-        <v>0.9148557714599264</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5501906676889234</v>
+      </c>
+      <c r="R21">
+        <v>0.8432300066602885</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.525636182933141</v>
+        <v>1.370133133338356</v>
       </c>
       <c r="C22">
-        <v>0.3460568810802727</v>
+        <v>0.3856671366684168</v>
       </c>
       <c r="D22">
-        <v>0.1748474898637227</v>
+        <v>0.2048252006589451</v>
       </c>
       <c r="E22">
-        <v>0.1305781580878396</v>
+        <v>0.1383234766494361</v>
       </c>
       <c r="F22">
-        <v>1.337659934929604</v>
+        <v>1.139535407642114</v>
       </c>
       <c r="G22">
-        <v>0.9565122525766583</v>
+        <v>0.9631192533141046</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001765727964700758</v>
+        <v>0.002095269353793228</v>
       </c>
       <c r="J22">
-        <v>0.623091369846577</v>
+        <v>0.3830595073896319</v>
       </c>
       <c r="K22">
-        <v>0.5596221273344355</v>
+        <v>0.4356593373066389</v>
       </c>
       <c r="L22">
-        <v>0.1351385283683939</v>
+        <v>0.1755784237349971</v>
       </c>
       <c r="M22">
-        <v>1.804031967175689</v>
+        <v>0.1618627004566022</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1318984518567987</v>
       </c>
       <c r="O22">
-        <v>0.5950020756015775</v>
+        <v>1.721819898983853</v>
       </c>
       <c r="P22">
-        <v>0.8863825566118742</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5876375760256138</v>
+      </c>
+      <c r="R22">
+        <v>0.809858969996073</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.4706485348635</v>
+        <v>1.327976465193188</v>
       </c>
       <c r="C23">
-        <v>0.3317413765365984</v>
+        <v>0.3747469943160695</v>
       </c>
       <c r="D23">
-        <v>0.1686708808973094</v>
+        <v>0.1948613138926589</v>
       </c>
       <c r="E23">
-        <v>0.1267260618796691</v>
+        <v>0.1334612431906805</v>
       </c>
       <c r="F23">
-        <v>1.313160073740235</v>
+        <v>1.136726018446424</v>
       </c>
       <c r="G23">
-        <v>0.9391630453648645</v>
+        <v>0.9091351834902781</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001394462244686423</v>
+        <v>0.001713488396425156</v>
       </c>
       <c r="J23">
-        <v>0.6174179229834493</v>
+        <v>0.4251958990879672</v>
       </c>
       <c r="K23">
-        <v>0.5552590200564254</v>
+        <v>0.4411781262194268</v>
       </c>
       <c r="L23">
-        <v>0.1319890712867178</v>
+        <v>0.1796369605280148</v>
       </c>
       <c r="M23">
-        <v>1.736961134672271</v>
+        <v>0.1608024788882254</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.129007149128384</v>
       </c>
       <c r="O23">
-        <v>0.573366823497274</v>
+        <v>1.670494664062971</v>
       </c>
       <c r="P23">
-        <v>0.9027148023748808</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5680660903799932</v>
+      </c>
+      <c r="R23">
+        <v>0.8290068284623029</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.257914225707282</v>
+        <v>1.155067858506726</v>
       </c>
       <c r="C24">
-        <v>0.2809704304102922</v>
+        <v>0.328588366985997</v>
       </c>
       <c r="D24">
-        <v>0.1462274037141498</v>
+        <v>0.162290609076635</v>
       </c>
       <c r="E24">
-        <v>0.1125885009648222</v>
+        <v>0.1166626204196071</v>
       </c>
       <c r="F24">
-        <v>1.218968959392456</v>
+        <v>1.10210896086808</v>
       </c>
       <c r="G24">
-        <v>0.8714164858035645</v>
+        <v>0.7627915314854192</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001283710250373105</v>
+        <v>0.001390783078423219</v>
       </c>
       <c r="J24">
-        <v>0.5950198900176815</v>
+        <v>0.5428414810291855</v>
       </c>
       <c r="K24">
-        <v>0.5365913591588978</v>
+        <v>0.4508233415432485</v>
       </c>
       <c r="L24">
-        <v>0.1203262379465642</v>
+        <v>0.1915897314602653</v>
       </c>
       <c r="M24">
-        <v>1.483420490585843</v>
+        <v>0.152645058351947</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1181273891527823</v>
       </c>
       <c r="O24">
-        <v>0.4922017981972004</v>
+        <v>1.457695484716737</v>
       </c>
       <c r="P24">
-        <v>0.9645122483695587</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4919433077474267</v>
+      </c>
+      <c r="R24">
+        <v>0.8990495410039436</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.029268727893225</v>
+        <v>0.9525942049612866</v>
       </c>
       <c r="C25">
-        <v>0.2280461936977076</v>
+        <v>0.2651539538889836</v>
       </c>
       <c r="D25">
-        <v>0.1225942796821471</v>
+        <v>0.1350136223571923</v>
       </c>
       <c r="E25">
-        <v>0.09790270094953613</v>
+        <v>0.1011708210776341</v>
       </c>
       <c r="F25">
-        <v>1.123628331502701</v>
+        <v>1.027656463485798</v>
       </c>
       <c r="G25">
-        <v>0.8031577406192554</v>
+        <v>0.7063135525005038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002776520590097142</v>
+        <v>0.002247204516019785</v>
       </c>
       <c r="J25">
-        <v>0.5735711137840269</v>
+        <v>0.5354009965021476</v>
       </c>
       <c r="K25">
-        <v>0.5186661947039894</v>
+        <v>0.4445804270186215</v>
       </c>
       <c r="L25">
-        <v>0.1084362844242435</v>
+        <v>0.1985480990106687</v>
       </c>
       <c r="M25">
-        <v>1.212653641392137</v>
+        <v>0.1392021960181253</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1067157106999588</v>
       </c>
       <c r="O25">
-        <v>0.4060648334520778</v>
+        <v>1.196136874032987</v>
       </c>
       <c r="P25">
-        <v>1.035029889866344</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4062585872123066</v>
+      </c>
+      <c r="R25">
+        <v>0.9689636890557622</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
